--- a/ASP.NET CORE/HRMNS/public/wwwroot/templates/OvertimeTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/public/wwwroot/templates/OvertimeTemplate.xlsx
@@ -32,13 +32,13 @@
     <t>Tên NV</t>
   </si>
   <si>
-    <t>Ngày Đăng Ký OT</t>
-  </si>
-  <si>
     <t>H2105001</t>
   </si>
   <si>
     <t>LE VAN DANG</t>
+  </si>
+  <si>
+    <t>Ngày Đăng Ký OT(YYYY-MM-DD)</t>
   </si>
 </sst>
 </file>
@@ -383,12 +383,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -399,15 +400,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>44648</v>

--- a/ASP.NET CORE/HRMNS/public/wwwroot/templates/OvertimeTemplate.xlsx
+++ b/ASP.NET CORE/HRMNS/public/wwwroot/templates/OvertimeTemplate.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="NV" sheetId="1" r:id="rId1"/>
+    <sheet name="HeSOOT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã NV</t>
   </si>
@@ -39,19 +40,42 @@
   </si>
   <si>
     <t>Ngày Đăng Ký OT(YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Hệ Số OT</t>
+  </si>
+  <si>
+    <t>Số giờ OT</t>
+  </si>
+  <si>
+    <t>Nội Dung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -68,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -91,18 +115,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 70" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -380,19 +434,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +462,17 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -413,9 +482,71 @@
       <c r="C2" s="3">
         <v>44648</v>
       </c>
+      <c r="D2" s="6">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>HeSOOT!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>